--- a/dataset/racial_disparity_FINAL_batch1_anonymized.xlsx
+++ b/dataset/racial_disparity_FINAL_batch1_anonymized.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1UJRvU8BkLCs8ULNi-lIeGehkxcCSluw6/RacialDisparityPCa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakinkirti/Programming/Python/CCIPD/racial-disparity-pca/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2E8C2-6F43-6848-B180-18C96ED876A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C617D-FD1E-9243-9CE6-CD99C3996CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="640" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="racial_disparity_FINAL_batch1" sheetId="1" r:id="rId1"/>
